--- a/data/themes_29Apr25.xlsx
+++ b/data/themes_29Apr25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmhp/Desktop/undp/ndc_nbsap_report/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmhp/Desktop/undp/TargetAssessmentReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{8B9F4E6A-718E-424C-8922-0C437634DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D01CB93E-741E-478A-86D4-1594EFFCB1C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D3DC7-48AE-404A-80DD-66FD241ED645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="22240" xr2:uid="{0AE8BCE9-D803-FB4B-99E2-B74A89915A04}"/>
+    <workbookView xWindow="11420" yWindow="0" windowWidth="22780" windowHeight="22240" xr2:uid="{0AE8BCE9-D803-FB4B-99E2-B74A89915A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Themes" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Themes</t>
   </si>
@@ -157,6 +157,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>the concept of Land Degradation Neutrality (LDN), which strives for a balance between land degradation and land restoration, ensuring that any land degradation is offset by the restoration of an equivalent area.</t>
     </r>
@@ -189,6 +190,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>This approach promotes long-term environmental sustainability, supports the restoration of ecosystem services, and contributes to the achievement of Rio Conventions global targets.</t>
     </r>
@@ -279,24 +281,33 @@
       <t>manually</t>
     </r>
   </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>NbS</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Sustainable development and the Sustainable Development Goals (SDGs)</t>
+  </si>
+  <si>
+    <t>This includes actions that promote inclusive, equitable, and environmentally sustainable development while ensuring that present needs are met without compromising the ability of future generations to meet theirs. It covers the implementation of the 2030 Agenda for Sustainable Development and its 17 SDGs, which integrate social, economic, and environmental dimensions. Efforts include poverty eradication, food and water security, universal access to education and healthcare, sustainable economic growth, sustainable infrastructure and urbanization, responsible consumption and production, access to clean energy, reduction of inequalities, promotion of peace, justice and strong institutions, and fostering partnerships. It also includes aligning national strategies with the SDGs, strengthening institutions to deliver on them, integrating SDG indicators into monitoring and reporting systems, ensuring policy coherence across sectors, and promoting cross-cutting solutions that address multiple goals simultaneously, including biodiversity conservation, climate action, and gender equality.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <sz val="12"/>
@@ -336,6 +347,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -375,18 +387,18 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,173 +733,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CD8B78-D88D-3A4E-BBE5-89026F961131}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.875" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="77.25">
+      <c r="C1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" customHeight="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="77.25">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="46.5">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="46.5">
-      <c r="A5" s="6" t="s">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.5">
-      <c r="A6" s="6" t="s">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="61.5">
-      <c r="A7" s="6" t="s">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="46.5">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" customHeight="1">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.75">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" customHeight="1">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="46.5">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.75">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" customHeight="1">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="46.5">
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" customHeight="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="77.25">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" customHeight="1">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="108">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" customHeight="1">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="61.5">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" customHeight="1">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30.75">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" customHeight="1">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.75">
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" customHeight="1">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="46.5">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="61.5">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" customHeight="1">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.95">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -900,9 +974,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -942,15 +1016,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001577CA56F8CF414FA01735147A342F5E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15ebec4ab82c4afa1bee2c7efe3711a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295" xmlns:ns3="a236eee0-dfe7-41fa-863c-f8b5736ab75b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f312e4fff05bdb9aa5c3ccce3cb8bc17" ns2:_="" ns3:_="">
     <xsd:import namespace="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
@@ -1151,14 +1216,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9466BE-8805-4D92-BAFF-AA8763E7468C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9466BE-8805-4D92-BAFF-AA8763E7468C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
+    <ds:schemaRef ds:uri="a236eee0-dfe7-41fa-863c-f8b5736ab75b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82998C6-F370-45A4-81C6-97C04F6D8157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4D478A-C343-4184-95BC-EA42CAD5BD1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
+    <ds:schemaRef ds:uri="a236eee0-dfe7-41fa-863c-f8b5736ab75b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4D478A-C343-4184-95BC-EA42CAD5BD1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82998C6-F370-45A4-81C6-97C04F6D8157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>